--- a/files/API_Timings.xlsx
+++ b/files/API_Timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo Wipfli\Desktop\Booking-Application\booking-application\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24350085-EF58-4E83-A035-238124254142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995EA109-1FB6-4DC4-AAB3-CB9B30C70216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E3AC7D9E-BF4D-4808-A51A-96CD3721E44D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="105">
   <si>
     <t>timer_0:</t>
   </si>
@@ -71,23 +71,294 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>All in miliseconds</t>
+    <t>timer_10:</t>
+  </si>
+  <si>
+    <t>timer_11:</t>
+  </si>
+  <si>
+    <t>timer_12:</t>
+  </si>
+  <si>
+    <t>timer_13:</t>
+  </si>
+  <si>
+    <t>timer_14:</t>
+  </si>
+  <si>
+    <t>timer_15:</t>
+  </si>
+  <si>
+    <t>timer_16:</t>
+  </si>
+  <si>
+    <t>timer_17:</t>
+  </si>
+  <si>
+    <t>timer_18:</t>
+  </si>
+  <si>
+    <t>timer_19:</t>
+  </si>
+  <si>
+    <t>timer_20:</t>
+  </si>
+  <si>
+    <t>timer_21:</t>
+  </si>
+  <si>
+    <t>timer_22:</t>
+  </si>
+  <si>
+    <t>timer_23:</t>
+  </si>
+  <si>
+    <t>timer_24:</t>
+  </si>
+  <si>
+    <t>timer_25:</t>
+  </si>
+  <si>
+    <t>timer_26:</t>
+  </si>
+  <si>
+    <t>timer_27:</t>
+  </si>
+  <si>
+    <t>timer_28:</t>
+  </si>
+  <si>
+    <t>timer_29:</t>
+  </si>
+  <si>
+    <t>timer_30:</t>
+  </si>
+  <si>
+    <t>timer_31:</t>
+  </si>
+  <si>
+    <t>timer_32:</t>
+  </si>
+  <si>
+    <t>timer_33:</t>
+  </si>
+  <si>
+    <t>timer_34:</t>
+  </si>
+  <si>
+    <t>timer_35:</t>
+  </si>
+  <si>
+    <t>timer_36:</t>
+  </si>
+  <si>
+    <t>timer_37:</t>
+  </si>
+  <si>
+    <t>timer_38:</t>
+  </si>
+  <si>
+    <t>timer_39:</t>
+  </si>
+  <si>
+    <t>timer_40:</t>
+  </si>
+  <si>
+    <t>timer_41:</t>
+  </si>
+  <si>
+    <t>timer_42:</t>
+  </si>
+  <si>
+    <t>timer_43:</t>
+  </si>
+  <si>
+    <t>timer_44:</t>
+  </si>
+  <si>
+    <t>timer_45:</t>
+  </si>
+  <si>
+    <t>timer_46:</t>
+  </si>
+  <si>
+    <t>timer_47:</t>
+  </si>
+  <si>
+    <t>timer_48:</t>
+  </si>
+  <si>
+    <t>timer_49:</t>
+  </si>
+  <si>
+    <t>timer_50:</t>
+  </si>
+  <si>
+    <t>timer_51:</t>
+  </si>
+  <si>
+    <t>timer_52:</t>
+  </si>
+  <si>
+    <t>timer_53:</t>
+  </si>
+  <si>
+    <t>timer_54:</t>
+  </si>
+  <si>
+    <t>timer_55:</t>
+  </si>
+  <si>
+    <t>timer_56:</t>
+  </si>
+  <si>
+    <t>timer_57:</t>
+  </si>
+  <si>
+    <t>timer_58:</t>
+  </si>
+  <si>
+    <t>timer_59:</t>
+  </si>
+  <si>
+    <t>timer_60:</t>
+  </si>
+  <si>
+    <t>timer_61:</t>
+  </si>
+  <si>
+    <t>timer_62:</t>
+  </si>
+  <si>
+    <t>timer_63:</t>
+  </si>
+  <si>
+    <t>timer_64:</t>
+  </si>
+  <si>
+    <t>timer_65:</t>
+  </si>
+  <si>
+    <t>timer_66:</t>
+  </si>
+  <si>
+    <t>timer_67:</t>
+  </si>
+  <si>
+    <t>timer_68:</t>
+  </si>
+  <si>
+    <t>timer_69:</t>
+  </si>
+  <si>
+    <t>timer_70:</t>
+  </si>
+  <si>
+    <t>timer_71:</t>
+  </si>
+  <si>
+    <t>timer_72:</t>
+  </si>
+  <si>
+    <t>timer_73:</t>
+  </si>
+  <si>
+    <t>timer_74:</t>
+  </si>
+  <si>
+    <t>timer_75:</t>
+  </si>
+  <si>
+    <t>timer_76:</t>
+  </si>
+  <si>
+    <t>timer_77:</t>
+  </si>
+  <si>
+    <t>timer_78:</t>
+  </si>
+  <si>
+    <t>timer_79:</t>
+  </si>
+  <si>
+    <t>timer_80:</t>
+  </si>
+  <si>
+    <t>timer_81:</t>
+  </si>
+  <si>
+    <t>timer_82:</t>
+  </si>
+  <si>
+    <t>timer_83:</t>
+  </si>
+  <si>
+    <t>timer_84:</t>
+  </si>
+  <si>
+    <t>timer_85:</t>
+  </si>
+  <si>
+    <t>timer_86:</t>
+  </si>
+  <si>
+    <t>timer_87:</t>
+  </si>
+  <si>
+    <t>timer_88:</t>
+  </si>
+  <si>
+    <t>timer_89:</t>
+  </si>
+  <si>
+    <t>timer_90:</t>
+  </si>
+  <si>
+    <t>timer_91:</t>
+  </si>
+  <si>
+    <t>timer_92:</t>
+  </si>
+  <si>
+    <t>timer_93:</t>
+  </si>
+  <si>
+    <t>timer_94:</t>
+  </si>
+  <si>
+    <t>timer_95:</t>
+  </si>
+  <si>
+    <t>timer_96:</t>
+  </si>
+  <si>
+    <t>timer_97:</t>
+  </si>
+  <si>
+    <t>timer_98:</t>
+  </si>
+  <si>
+    <t>timer_99:</t>
+  </si>
+  <si>
+    <t>Miliseconds</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Ditance</t>
+  </si>
+  <si>
+    <t>;iliseconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,9 +386,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -133,6 +403,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DFD25B1-00F5-4549-B656-FB234EE1DDE6}" name="Tabelle2" displayName="Tabelle2" ref="A2:B103" totalsRowCount="1">
+  <autoFilter ref="A2:B102" xr:uid="{5DFD25B1-00F5-4549-B656-FB234EE1DDE6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E382E0E6-1F98-4AA6-96EF-36720BFBE05F}" name="Requests"/>
+    <tableColumn id="2" xr3:uid="{D58A89E9-6E28-4F55-A779-7ADC84F07EF3}" name="Miliseconds" totalsRowFunction="average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B81ACE4E-52BB-4F28-8CAE-26634D40A50F}" name="Tabelle3" displayName="Tabelle3" ref="D2:E103" totalsRowCount="1">
+  <autoFilter ref="D2:E102" xr:uid="{B81ACE4E-52BB-4F28-8CAE-26634D40A50F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{335451E6-BDC9-42C0-9E4F-ABE3AF9F3C28}" name="Requests"/>
+    <tableColumn id="2" xr3:uid="{DCD42DBB-1687-446D-BAC4-E2A7EA889383}" name="Miliseconds" totalsRowFunction="average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BFFE757F-006D-4485-A2D7-58CCB3D62926}" name="Tabelle4" displayName="Tabelle4" ref="G2:H103" totalsRowCount="1">
+  <autoFilter ref="G2:H102" xr:uid="{BFFE757F-006D-4485-A2D7-58CCB3D62926}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6076D5BE-3AC7-4011-887E-AA702F67E7C4}" name="Requests"/>
+    <tableColumn id="2" xr3:uid="{59026604-3895-42A6-936D-C6EFFC584DE5}" name=";iliseconds" totalsRowFunction="average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,194 +735,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34406EA-32E6-435D-B5D7-12AA0F6C41B7}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>500</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>224.845</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5000</v>
+        <v>951.04499999999996</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>50000</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>252.83799999999999</v>
+        <v>215.72900000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1015</v>
+        <v>864.53399999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2990</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>215.90199999999999</v>
+        <v>195.65299999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>904.05600000000004</v>
+        <v>906.49599999999998</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2874</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>224.852</v>
+        <v>171.30600000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>946.95</v>
+        <v>891.68299999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2916</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>175.43100000000001</v>
+        <v>195.589</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>834.17</v>
+        <v>869.25900000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>2771</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>224.25</v>
+        <v>188.66</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>875.18799999999999</v>
+        <v>926.63800000000003</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>2862</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>182.89500000000001</v>
+        <v>1145</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>867.79600000000005</v>
+        <v>952.57799999999997</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>2821</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>178.749</v>
+        <v>224.31700000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>874.68399999999997</v>
+        <v>922.74099999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>2826</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>210.001</v>
+        <v>228.10300000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>840.99699999999996</v>
+        <v>940.53800000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>2966</v>
@@ -627,60 +965,1845 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>166.03200000000001</v>
+        <v>176.06700000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>909.42700000000002</v>
+        <v>869.923</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>2934</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>183.09200000000001</v>
+        <v>529.15</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>848.649</v>
+        <v>1074</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>2858</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <f>AVERAGE(B4:B13)</f>
-        <v>201.4042</v>
-      </c>
-      <c r="E14" s="1">
-        <f>AVERAGE(E4:E13)</f>
-        <v>891.69170000000008</v>
-      </c>
-      <c r="H14" s="1">
-        <f>AVERAGE(H4:H13)</f>
-        <v>2881.8</v>
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>835.947</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>931.01300000000003</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>238.54599999999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>911.32899999999995</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>180.417</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>954.20699999999999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1531</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>920.84799999999996</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>235.58199999999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>1205</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>217.95599999999999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>1088</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>553.16700000000003</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>1028</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>195.00200000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>1125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>188.14699999999999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1089</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>889.64800000000002</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>902.07500000000005</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>231.578</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>948.64499999999998</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>498.09199999999998</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>938.79600000000005</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>189.74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>915.298</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1091</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>875.39599999999996</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>199.429</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>881.03099999999995</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>522.096</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>923.66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>205.584</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>905.45500000000004</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>192.15700000000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>847.51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>880.13599999999997</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>200.905</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>996.96400000000006</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>175.07599999999999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>1234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>253.77099999999999</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>979.09699999999998</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>192.95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>856.67399999999998</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>192.24299999999999</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>871.14499999999998</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>544.06200000000001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>850.97199999999998</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>192.09100000000001</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>950.41899999999998</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>809.87699999999995</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>984.67899999999997</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>184.75200000000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>894.88499999999999</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>204.464</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>895.81100000000004</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>830.59500000000003</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>846.37099999999998</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>171.18299999999999</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>900.08199999999999</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>810.40300000000002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>902.548</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>176.30799999999999</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>986.79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>161.518</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>886.12199999999996</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>176.577</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>917.92100000000005</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>191.97300000000001</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>1724</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>256.93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>1017</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>884.51700000000005</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>943.46199999999999</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>223.66200000000001</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>841.096</v>
+      </c>
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>227.19800000000001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>966.20500000000004</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>183.727</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>864.70100000000002</v>
+      </c>
+      <c r="G54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>547.56299999999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>1594</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>227.21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>930.50599999999997</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>542.26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>920.18899999999996</v>
+      </c>
+      <c r="G57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>193.721</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>906.29899999999998</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>223.756</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>942.27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>188.49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>918.91099999999994</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>493.93400000000003</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>981.99199999999996</v>
+      </c>
+      <c r="G61" t="s">
+        <v>59</v>
+      </c>
+      <c r="H61">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>187.43799999999999</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>985.93700000000001</v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>851.38300000000004</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>877.94100000000003</v>
+      </c>
+      <c r="G63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>167.67599999999999</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>941.77200000000005</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>177.42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>901.39499999999998</v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>159.30799999999999</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>1016</v>
+      </c>
+      <c r="G66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>551.72900000000004</v>
+      </c>
+      <c r="D67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>953.04200000000003</v>
+      </c>
+      <c r="G67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>195.12799999999999</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>903.91700000000003</v>
+      </c>
+      <c r="G68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>554.72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>883.63400000000001</v>
+      </c>
+      <c r="G69" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>306.161</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>1051</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>235.76400000000001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>935.05600000000004</v>
+      </c>
+      <c r="G71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>182.696</v>
+      </c>
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>910.61</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>512.24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>899.54300000000001</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>201.45500000000001</v>
+      </c>
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>882.50699999999995</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>796.04</v>
+      </c>
+      <c r="D75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>952.34100000000001</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>191.566</v>
+      </c>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>1094</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>168.15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>1058</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>175.94300000000001</v>
+      </c>
+      <c r="D78" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>966.37800000000004</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>189.839</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>968.42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>205.62</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>903.91</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>814.23199999999997</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>892.24400000000003</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>236.215</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>1023</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>175.43199999999999</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>878.08199999999999</v>
+      </c>
+      <c r="G83" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>172.48099999999999</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>880.65599999999995</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>534.81899999999996</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>891.91300000000001</v>
+      </c>
+      <c r="G85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H85">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>175.71</v>
+      </c>
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>985.51199999999994</v>
+      </c>
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>864.86599999999999</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>908.99300000000005</v>
+      </c>
+      <c r="G87" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>215.73699999999999</v>
+      </c>
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>918.678</v>
+      </c>
+      <c r="G88" t="s">
+        <v>86</v>
+      </c>
+      <c r="H88">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>188.94900000000001</v>
+      </c>
+      <c r="D89" t="s">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>901.64</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>155.64599999999999</v>
+      </c>
+      <c r="D90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>892.36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>477.19200000000001</v>
+      </c>
+      <c r="D91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>914.25099999999998</v>
+      </c>
+      <c r="G91" t="s">
+        <v>89</v>
+      </c>
+      <c r="H91">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>155.93899999999999</v>
+      </c>
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>852.61599999999999</v>
+      </c>
+      <c r="G92" t="s">
+        <v>90</v>
+      </c>
+      <c r="H92">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>846.81</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>910.62900000000002</v>
+      </c>
+      <c r="G93" t="s">
+        <v>91</v>
+      </c>
+      <c r="H93">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>157.61199999999999</v>
+      </c>
+      <c r="D94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>846.51</v>
+      </c>
+      <c r="G94" t="s">
+        <v>92</v>
+      </c>
+      <c r="H94">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>198.166</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>1060</v>
+      </c>
+      <c r="G95" t="s">
+        <v>93</v>
+      </c>
+      <c r="H95">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>172.16499999999999</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>951.82299999999998</v>
+      </c>
+      <c r="G96" t="s">
+        <v>94</v>
+      </c>
+      <c r="H96">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>505.40600000000001</v>
+      </c>
+      <c r="D97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>913.17499999999995</v>
+      </c>
+      <c r="G97" t="s">
+        <v>95</v>
+      </c>
+      <c r="H97">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>171.05</v>
+      </c>
+      <c r="D98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>856.82100000000003</v>
+      </c>
+      <c r="G98" t="s">
+        <v>96</v>
+      </c>
+      <c r="H98">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>844.89300000000003</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>898.97199999999998</v>
+      </c>
+      <c r="G99" t="s">
+        <v>97</v>
+      </c>
+      <c r="H99">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>239.476</v>
+      </c>
+      <c r="D100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <v>976.32100000000003</v>
+      </c>
+      <c r="G100" t="s">
+        <v>98</v>
+      </c>
+      <c r="H100">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>169.20599999999999</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>861.31299999999999</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>182.88200000000001</v>
+      </c>
+      <c r="D102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>959.53899999999999</v>
+      </c>
+      <c r="G102" t="s">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f>SUBTOTAL(101,Tabelle2[Miliseconds])</f>
+        <v>361.46383000000014</v>
+      </c>
+      <c r="E103">
+        <f>SUBTOTAL(101,Tabelle3[Miliseconds])</f>
+        <v>952.05395999999996</v>
+      </c>
+      <c r="H103">
+        <f>SUBTOTAL(101,Tabelle4[;iliseconds])</f>
+        <v>3081.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>